--- a/Notebooks/LETU_v4_sklift/class_res.xlsx
+++ b/Notebooks/LETU_v4_sklift/class_res.xlsx
@@ -465,10 +465,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7073453507028429</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.73453507028429</v>
+        <v>0.4146917925565134</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,7 +480,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -486,10 +488,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7073041750917828</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.73041750917828</v>
+        <v>0.4146090296346014</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -499,7 +503,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -507,10 +511,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7032348793729046</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.32348793729046</v>
+        <v>0.4064697587458093</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -520,7 +526,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -528,10 +534,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7008857137380746</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.08857137380746</v>
+        <v>0.4017703335465836</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -541,7 +549,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -549,20 +557,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6973470368514186</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.73470368514186</v>
+        <v>0.3949755903682357</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'Label Encoder': {'positive_label': None}, 'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Undersampler': {'sampling_ratio': 0.25, 'min_samples': 100, 'min_percentage': 0.1, 'sampling_ratio_dict': None}, 'Select Columns Transformer': {'columns': [3, 14, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 30, 33, 35, 36, 37, 43, 45, 46, 47, 48, 49, 50, 51, 52]}, 'Random Forest Classifier': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
+          <t>{'Label Encoder': {'positive_label': None}, 'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Undersampler': {'sampling_ratio': 0.25, 'min_samples': 100, 'min_percentage': 0.1, 'sampling_ratio_dict': None}, 'Select Columns Transformer': {'columns': [3, 14, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 30, 33, 35, 36, 37, 43, 45, 46, 47, 48, 49, 50, 51, 52]}, 'Random Forest Classifier': {'n_estimators': 326, 'max_depth': 10, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -570,10 +580,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.695650139348339</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19.5650139348339</v>
+        <v>0.3913002784981967</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -583,7 +595,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -591,10 +603,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6844946949522257</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18.44946949522257</v>
+        <v>0.368990043999504</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -604,7 +618,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -612,10 +626,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6688171160048112</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.88171160048112</v>
+        <v>0.3376342320096224</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -625,7 +641,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -633,10 +649,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6687745217240043</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16.87745217240043</v>
+        <v>0.3375490434480086</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -646,7 +664,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -654,10 +672,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6616525182721975</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.16525182721975</v>
+        <v>0.323305036544395</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
